--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H2">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I2">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J2">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.935295</v>
+        <v>3.833884</v>
       </c>
       <c r="N2">
-        <v>8.805885</v>
+        <v>11.501652</v>
       </c>
       <c r="O2">
-        <v>0.0527739323334782</v>
+        <v>0.06481711538755341</v>
       </c>
       <c r="P2">
-        <v>0.0527739323334782</v>
+        <v>0.06481711538755341</v>
       </c>
       <c r="Q2">
-        <v>282.72980413007</v>
+        <v>209.0841252973227</v>
       </c>
       <c r="R2">
-        <v>2544.56823717063</v>
+        <v>1881.757127675904</v>
       </c>
       <c r="S2">
-        <v>0.02010594262185203</v>
+        <v>0.01964858684584711</v>
       </c>
       <c r="T2">
-        <v>0.02010594262185203</v>
+        <v>0.01964858684584711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H3">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I3">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J3">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>115.401245</v>
       </c>
       <c r="O3">
-        <v>0.69160311482936</v>
+        <v>0.6503392567461023</v>
       </c>
       <c r="P3">
-        <v>0.69160311482936</v>
+        <v>0.6503392567461023</v>
       </c>
       <c r="Q3">
-        <v>3705.178002576256</v>
+        <v>2097.835021355805</v>
       </c>
       <c r="R3">
-        <v>33346.60202318631</v>
+        <v>18880.51519220224</v>
       </c>
       <c r="S3">
-        <v>0.2634886567858072</v>
+        <v>0.1971431047036877</v>
       </c>
       <c r="T3">
-        <v>0.2634886567858072</v>
+        <v>0.1971431047036877</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H4">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I4">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J4">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.236038333333333</v>
+        <v>9.801416999999999</v>
       </c>
       <c r="N4">
-        <v>24.708115</v>
+        <v>29.404251</v>
       </c>
       <c r="O4">
-        <v>0.1480764726200487</v>
+        <v>0.1657065202417516</v>
       </c>
       <c r="P4">
-        <v>0.1480764726200487</v>
+        <v>0.1657065202417516</v>
       </c>
       <c r="Q4">
-        <v>793.3013563512633</v>
+        <v>534.5286138337279</v>
       </c>
       <c r="R4">
-        <v>7139.71220716137</v>
+        <v>4810.757524503551</v>
       </c>
       <c r="S4">
-        <v>0.05641453896844229</v>
+        <v>0.05023208660900074</v>
       </c>
       <c r="T4">
-        <v>0.05641453896844229</v>
+        <v>0.05023208660900076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.320746</v>
+        <v>54.53585066666667</v>
       </c>
       <c r="H5">
-        <v>288.962238</v>
+        <v>163.607552</v>
       </c>
       <c r="I5">
-        <v>0.3809824610908789</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="J5">
-        <v>0.3809824610908788</v>
+        <v>0.3031388658437607</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.981753333333333</v>
+        <v>7.046871</v>
       </c>
       <c r="N5">
-        <v>17.94526</v>
+        <v>21.140613</v>
       </c>
       <c r="O5">
-        <v>0.1075464802171131</v>
+        <v>0.1191371076245927</v>
       </c>
       <c r="P5">
-        <v>0.1075464802171131</v>
+        <v>0.1191371076245927</v>
       </c>
       <c r="Q5">
-        <v>576.1669434546533</v>
+        <v>384.3071045232641</v>
       </c>
       <c r="R5">
-        <v>5185.502491091879</v>
+        <v>3458.763940709376</v>
       </c>
       <c r="S5">
-        <v>0.04097332271477726</v>
+        <v>0.03611508768522508</v>
       </c>
       <c r="T5">
-        <v>0.04097332271477725</v>
+        <v>0.03611508768522509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J6">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.935295</v>
+        <v>3.833884</v>
       </c>
       <c r="N6">
-        <v>8.805885</v>
+        <v>11.501652</v>
       </c>
       <c r="O6">
-        <v>0.0527739323334782</v>
+        <v>0.06481711538755341</v>
       </c>
       <c r="P6">
-        <v>0.0527739323334782</v>
+        <v>0.06481711538755341</v>
       </c>
       <c r="Q6">
-        <v>54.19926918255666</v>
+        <v>70.79142332566133</v>
       </c>
       <c r="R6">
-        <v>487.79342264301</v>
+        <v>637.1228099309519</v>
       </c>
       <c r="S6">
-        <v>0.003854306763603414</v>
+        <v>0.006652592238542343</v>
       </c>
       <c r="T6">
-        <v>0.003854306763603414</v>
+        <v>0.006652592238542344</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J7">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>115.401245</v>
       </c>
       <c r="O7">
-        <v>0.69160311482936</v>
+        <v>0.6503392567461023</v>
       </c>
       <c r="P7">
-        <v>0.69160311482936</v>
+        <v>0.6503392567461023</v>
       </c>
       <c r="Q7">
         <v>710.2821739958188</v>
@@ -883,10 +883,10 @@
         <v>6392.539565962369</v>
       </c>
       <c r="S7">
-        <v>0.05051074356884681</v>
+        <v>0.06674844855374891</v>
       </c>
       <c r="T7">
-        <v>0.05051074356884681</v>
+        <v>0.06674844855374892</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J8">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.236038333333333</v>
+        <v>9.801416999999999</v>
       </c>
       <c r="N8">
-        <v>24.708115</v>
+        <v>29.404251</v>
       </c>
       <c r="O8">
-        <v>0.1480764726200487</v>
+        <v>0.1657065202417516</v>
       </c>
       <c r="P8">
-        <v>0.1480764726200487</v>
+        <v>0.1657065202417516</v>
       </c>
       <c r="Q8">
-        <v>152.0757738578878</v>
+        <v>180.979982711614</v>
       </c>
       <c r="R8">
-        <v>1368.68196472099</v>
+        <v>1628.819844404526</v>
       </c>
       <c r="S8">
-        <v>0.01081466028234425</v>
+        <v>0.0170075126584208</v>
       </c>
       <c r="T8">
-        <v>0.01081466028234425</v>
+        <v>0.0170075126584208</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.07303429161291355</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="J9">
-        <v>0.07303429161291354</v>
+        <v>0.1026363515063155</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.981753333333333</v>
+        <v>7.046871</v>
       </c>
       <c r="N9">
-        <v>17.94526</v>
+        <v>21.140613</v>
       </c>
       <c r="O9">
-        <v>0.1075464802171131</v>
+        <v>0.1191371076245927</v>
       </c>
       <c r="P9">
-        <v>0.1075464802171131</v>
+        <v>0.1191371076245927</v>
       </c>
       <c r="Q9">
-        <v>110.4511332240844</v>
+        <v>130.118185130882</v>
       </c>
       <c r="R9">
-        <v>994.0601990167598</v>
+        <v>1171.063666177938</v>
       </c>
       <c r="S9">
-        <v>0.007854580998119075</v>
+        <v>0.01222779805560343</v>
       </c>
       <c r="T9">
-        <v>0.007854580998119073</v>
+        <v>0.01222779805560344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H10">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J10">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.935295</v>
+        <v>3.833884</v>
       </c>
       <c r="N10">
-        <v>8.805885</v>
+        <v>11.501652</v>
       </c>
       <c r="O10">
-        <v>0.0527739323334782</v>
+        <v>0.06481711538755341</v>
       </c>
       <c r="P10">
-        <v>0.0527739323334782</v>
+        <v>0.06481711538755341</v>
       </c>
       <c r="Q10">
-        <v>44.40274462398501</v>
+        <v>48.13962642427866</v>
       </c>
       <c r="R10">
-        <v>399.624701615865</v>
+        <v>433.256637818508</v>
       </c>
       <c r="S10">
-        <v>0.003157640342904482</v>
+        <v>0.004523899789996097</v>
       </c>
       <c r="T10">
-        <v>0.003157640342904482</v>
+        <v>0.004523899789996098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H11">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J11">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>115.401245</v>
       </c>
       <c r="O11">
-        <v>0.69160311482936</v>
+        <v>0.6503392567461023</v>
       </c>
       <c r="P11">
-        <v>0.69160311482936</v>
+        <v>0.6503392567461023</v>
       </c>
       <c r="Q11">
-        <v>581.8985838476117</v>
+        <v>483.0065127337061</v>
       </c>
       <c r="R11">
-        <v>5237.087254628505</v>
+        <v>4347.058614603354</v>
       </c>
       <c r="S11">
-        <v>0.04138092046777855</v>
+        <v>0.04539032027927711</v>
       </c>
       <c r="T11">
-        <v>0.04138092046777855</v>
+        <v>0.04539032027927711</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H12">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J12">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.236038333333333</v>
+        <v>9.801416999999999</v>
       </c>
       <c r="N12">
-        <v>24.708115</v>
+        <v>29.404251</v>
       </c>
       <c r="O12">
-        <v>0.1480764726200487</v>
+        <v>0.1657065202417516</v>
       </c>
       <c r="P12">
-        <v>0.1480764726200487</v>
+        <v>0.1657065202417516</v>
       </c>
       <c r="Q12">
-        <v>124.5880590633484</v>
+        <v>123.070117094981</v>
       </c>
       <c r="R12">
-        <v>1121.292531570135</v>
+        <v>1107.631053854829</v>
       </c>
       <c r="S12">
-        <v>0.008859909108638524</v>
+        <v>0.01156545902483335</v>
       </c>
       <c r="T12">
-        <v>0.008859909108638526</v>
+        <v>0.01156545902483335</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.127183</v>
+        <v>12.55635966666667</v>
       </c>
       <c r="H13">
-        <v>45.38154900000001</v>
+        <v>37.669079</v>
       </c>
       <c r="I13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938171</v>
       </c>
       <c r="J13">
-        <v>0.05983333443775554</v>
+        <v>0.06979483370938172</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.981753333333333</v>
+        <v>7.046871</v>
       </c>
       <c r="N13">
-        <v>17.94526</v>
+        <v>21.140613</v>
       </c>
       <c r="O13">
-        <v>0.1075464802171131</v>
+        <v>0.1191371076245927</v>
       </c>
       <c r="P13">
-        <v>0.1075464802171131</v>
+        <v>0.1191371076245927</v>
       </c>
       <c r="Q13">
-        <v>90.48707733419334</v>
+        <v>88.48304680060299</v>
       </c>
       <c r="R13">
-        <v>814.38369600774</v>
+        <v>796.3474212054269</v>
       </c>
       <c r="S13">
-        <v>0.006434864518433987</v>
+        <v>0.008315154615275159</v>
       </c>
       <c r="T13">
-        <v>0.006434864518433987</v>
+        <v>0.008315154615275161</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H14">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I14">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J14">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.935295</v>
+        <v>3.833884</v>
       </c>
       <c r="N14">
-        <v>8.805885</v>
+        <v>11.501652</v>
       </c>
       <c r="O14">
-        <v>0.0527739323334782</v>
+        <v>0.06481711538755341</v>
       </c>
       <c r="P14">
-        <v>0.0527739323334782</v>
+        <v>0.06481711538755341</v>
       </c>
       <c r="Q14">
-        <v>360.7753208553449</v>
+        <v>361.7153374535187</v>
       </c>
       <c r="R14">
-        <v>3246.977887698104</v>
+        <v>3255.438037081668</v>
       </c>
       <c r="S14">
-        <v>0.02565604260511828</v>
+        <v>0.03399203651316785</v>
       </c>
       <c r="T14">
-        <v>0.02565604260511828</v>
+        <v>0.03399203651316786</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H15">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I15">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J15">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>115.401245</v>
       </c>
       <c r="O15">
-        <v>0.69160311482936</v>
+        <v>0.6503392567461023</v>
       </c>
       <c r="P15">
-        <v>0.69160311482936</v>
+        <v>0.6503392567461023</v>
       </c>
       <c r="Q15">
-        <v>4727.965581197264</v>
+        <v>3629.252587170189</v>
       </c>
       <c r="R15">
-        <v>42551.69023077538</v>
+        <v>32663.2732845317</v>
       </c>
       <c r="S15">
-        <v>0.3362227940069275</v>
+        <v>0.3410573832093884</v>
       </c>
       <c r="T15">
-        <v>0.3362227940069275</v>
+        <v>0.3410573832093885</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H16">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I16">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J16">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.236038333333333</v>
+        <v>9.801416999999999</v>
       </c>
       <c r="N16">
-        <v>24.708115</v>
+        <v>29.404251</v>
       </c>
       <c r="O16">
-        <v>0.1480764726200487</v>
+        <v>0.1657065202417516</v>
       </c>
       <c r="P16">
-        <v>0.1480764726200487</v>
+        <v>0.1657065202417516</v>
       </c>
       <c r="Q16">
-        <v>1012.286455802655</v>
+        <v>924.7339923893509</v>
       </c>
       <c r="R16">
-        <v>9110.578102223893</v>
+        <v>8322.605931504158</v>
       </c>
       <c r="S16">
-        <v>0.07198736426062366</v>
+        <v>0.08690146194949666</v>
       </c>
       <c r="T16">
-        <v>0.07198736426062366</v>
+        <v>0.0869014619494967</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>122.909391</v>
+        <v>94.34696966666667</v>
       </c>
       <c r="H17">
-        <v>368.728173</v>
+        <v>283.040909</v>
       </c>
       <c r="I17">
-        <v>0.4861499128584522</v>
+        <v>0.524429948940542</v>
       </c>
       <c r="J17">
-        <v>0.4861499128584522</v>
+        <v>0.5244299489405421</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.981753333333333</v>
+        <v>7.046871</v>
       </c>
       <c r="N17">
-        <v>17.94526</v>
+        <v>21.140613</v>
       </c>
       <c r="O17">
-        <v>0.1075464802171131</v>
+        <v>0.1191371076245927</v>
       </c>
       <c r="P17">
-        <v>0.1075464802171131</v>
+        <v>0.1191371076245927</v>
       </c>
       <c r="Q17">
-        <v>735.2136593122199</v>
+        <v>664.850924481913</v>
       </c>
       <c r="R17">
-        <v>6616.922933809979</v>
+        <v>5983.658320337217</v>
       </c>
       <c r="S17">
-        <v>0.05228371198578278</v>
+        <v>0.06247906726848899</v>
       </c>
       <c r="T17">
-        <v>0.05228371198578277</v>
+        <v>0.06247906726848901</v>
       </c>
     </row>
   </sheetData>
